--- a/Artefatos de Documentação/Processo Genérico/7-Garantia da Qualidade/Templates/Checklist.xlsx
+++ b/Artefatos de Documentação/Processo Genérico/7-Garantia da Qualidade/Templates/Checklist.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Gerência de Requisitos" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Gerência de Projeto" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Garantia da Qualidade" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Verificação e Validação" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Gerência de Requisitos" sheetId="1" r:id="rId1"/>
+    <sheet name="Gerência de Projeto" sheetId="2" r:id="rId2"/>
+    <sheet name="Garantia da Qualidade" sheetId="3" r:id="rId3"/>
+    <sheet name="Verificação e Validação" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Atividades Definidas para o Processo</t>
   </si>
@@ -128,60 +127,18 @@
     <t>Definir os Processos a Serem Geridos</t>
   </si>
   <si>
-    <t>Escopo da Qualidade – Plano Seção x</t>
-  </si>
-  <si>
     <t>Verificar Aderência dos Produtos de trabalho</t>
   </si>
   <si>
     <t>Checklist</t>
   </si>
   <si>
-    <t>PAI</t>
-  </si>
-  <si>
-    <t>RAQ</t>
-  </si>
-  <si>
-    <t>Registro de Não Conformidade</t>
-  </si>
-  <si>
-    <t>Comunicado de Não conformidade</t>
-  </si>
-  <si>
-    <t>Verificar Aderência de Processo</t>
-  </si>
-  <si>
     <t>Definir o Plano de Garantia da Qualidade</t>
   </si>
   <si>
-    <t>Plano de Garantia da Qualidade</t>
-  </si>
-  <si>
-    <t>Planejas e Executar Auditorias</t>
-  </si>
-  <si>
-    <t>Registro de Auditorias</t>
-  </si>
-  <si>
-    <t>Relatar não conformidades</t>
-  </si>
-  <si>
-    <t>Relatório de Não Conformidade</t>
-  </si>
-  <si>
-    <t>Comunicado de Não Conformidade</t>
-  </si>
-  <si>
     <t>Definir ações corretivas</t>
   </si>
   <si>
-    <t>Ações corretivas</t>
-  </si>
-  <si>
-    <t>Registro de acompanhamento de  não conformidades</t>
-  </si>
-  <si>
     <t>Gerenciar Verificação e Validação.</t>
   </si>
   <si>
@@ -234,16 +191,37 @@
   </si>
   <si>
     <t>PVVS (atualizado)</t>
+  </si>
+  <si>
+    <t>Seção 1.3 do Plano de Qualidade.</t>
+  </si>
+  <si>
+    <t>Verificar Aderência dos Processos</t>
+  </si>
+  <si>
+    <t>Plano de GQA</t>
+  </si>
+  <si>
+    <t>Relatar as não conformidades</t>
+  </si>
+  <si>
+    <t>Seção 4 do Plano de GQA</t>
+  </si>
+  <si>
+    <t>Relatório de Não Conformidades</t>
+  </si>
+  <si>
+    <t>Registro de Não Conformidades</t>
+  </si>
+  <si>
+    <t>Relatório de resolução de Não Conformidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -252,22 +230,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -291,7 +254,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -299,101 +262,343 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="1" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.8265306122449"/>
+    <col min="1" max="1" width="46.28515625" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1"/>
+    <col min="3" max="3" width="30" style="1"/>
+    <col min="4" max="10" width="20.7109375" style="1"/>
+    <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,7 +620,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -423,7 +628,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -435,7 +640,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -443,7 +648,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -455,7 +660,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
@@ -465,7 +670,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -473,7 +678,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -485,7 +690,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -493,7 +698,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -505,7 +710,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -515,64 +720,31 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.86734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.8265306122449"/>
+    <col min="1" max="1" width="46.28515625" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1"/>
+    <col min="3" max="3" width="30" style="1"/>
+    <col min="4" max="4" width="5.85546875" style="1"/>
+    <col min="5" max="10" width="20.7109375" style="1"/>
+    <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,9 +766,9 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
-      <c r="B2" s="0"/>
+      <c r="B2"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -606,215 +778,189 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0"/>
+      <c r="B4"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10">
       <c r="A5" s="4"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0"/>
+      <c r="B6"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0"/>
+      <c r="B8"/>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10">
       <c r="A11" s="4"/>
-      <c r="B11" s="0"/>
+      <c r="B11"/>
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0"/>
+      <c r="B13"/>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0"/>
+      <c r="B15"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="0"/>
+      <c r="B17"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0"/>
+      <c r="B19"/>
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="0"/>
+      <c r="B21"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0"/>
+      <c r="B23"/>
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
+    <row r="24" spans="1:3">
+      <c r="B24"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
+    <row r="25" spans="1:3">
+      <c r="B25"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="1" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.8265306122449"/>
+    <col min="1" max="1" width="46" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1"/>
+    <col min="3" max="3" width="30" style="1"/>
+    <col min="4" max="10" width="20.7109375" style="1"/>
+    <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,228 +982,197 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="29.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="29.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>51</v>
-      </c>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C28" s="4"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.66836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.4948979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.8265306122449"/>
+    <col min="1" max="1" width="48.85546875" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1"/>
+    <col min="3" max="3" width="30" style="1"/>
+    <col min="4" max="4" width="7.7109375" style="1"/>
+    <col min="5" max="5" width="24.42578125" style="1"/>
+    <col min="6" max="10" width="20.7109375" style="1"/>
+    <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1194,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -1091,145 +1206,138 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5">
       <c r="A5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4"/>
-      <c r="C6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12"/>
       <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.25">
+      <c r="A15"/>
       <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25">
+      <c r="A16"/>
       <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17"/>
       <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20"/>
       <c r="C20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.25">
+      <c r="A21"/>
       <c r="C21" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Artefatos de Documentação/Processo Genérico/7-Garantia da Qualidade/Templates/Checklist.xlsx
+++ b/Artefatos de Documentação/Processo Genérico/7-Garantia da Qualidade/Templates/Checklist.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises\Dropbox\UFG\5º Período\Projeto Integrador\P.I.-ES-UFG-2015-BIJLMMV\Artefatos de Documentação\Processo Genérico\7-Garantia da Qualidade\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="892"/>
   </bookViews>
   <sheets>
     <sheet name="Gerência de Requisitos" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Garantia da Qualidade" sheetId="3" r:id="rId3"/>
     <sheet name="Verificação e Validação" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -205,13 +210,13 @@
     <t>Relatar as não conformidades</t>
   </si>
   <si>
+    <t>Relatório de Não Conformidades</t>
+  </si>
+  <si>
+    <t>Registro de Não Conformidades</t>
+  </si>
+  <si>
     <t>Seção 4 do Plano de GQA</t>
-  </si>
-  <si>
-    <t>Relatório de Não Conformidades</t>
-  </si>
-  <si>
-    <t>Registro de Não Conformidades</t>
   </si>
   <si>
     <t>Relatório de resolução de Não Conformidades</t>
@@ -220,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,13 +249,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,12 +307,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -309,39 +357,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -418,178 +468,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" style="1"/>
     <col min="2" max="2" width="36.42578125" style="1"/>
@@ -598,7 +624,7 @@
     <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,104 +646,104 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4"/>
     </row>
   </sheetData>
@@ -727,14 +753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" style="1"/>
     <col min="2" max="2" width="36.42578125" style="1"/>
@@ -744,7 +770,7 @@
     <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,176 +792,189 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:10" ht="29.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B11"/>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:10" ht="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17"/>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21"/>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24"/>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25"/>
-      <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -944,14 +983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="1"/>
     <col min="2" max="2" width="36.42578125" style="1"/>
@@ -960,20 +999,20 @@
     <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
@@ -982,186 +1021,212 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="29.25">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="29.25">
-      <c r="A12" s="4" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="29.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="1"/>
     <col min="2" max="2" width="36.42578125" style="1"/>
@@ -1172,7 +1237,7 @@
     <col min="11" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,147 +1259,159 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.5">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.5">
-      <c r="A5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10"/>
       <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29.25">
-      <c r="A16"/>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17"/>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20"/>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29.25">
-      <c r="A21"/>
-      <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
